--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.45</v>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.53</v>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.45</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.35</v>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1699,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1837,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1938,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1954,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +1970,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +1986,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,95 +457,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1852</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.19</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -572,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,32 +788,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2104</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -640,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>011574</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1731</t>
+          <t>0.1108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -688,26 +874,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1012</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -716,36 +902,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>011575</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.0492</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +939,537 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -999,329 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8234</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1526</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011574</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1242</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0947</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011575</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1348,7 +1742,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1378,36 +1772,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.2104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1416,36 +1810,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011574</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1300</t>
+          <t>0.1731</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1464,26 +1858,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0797</t>
+          <t>0.1012</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1492,376 +1886,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011575</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>95.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0483</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011574</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1108</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011575</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0770</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1875,144 +1929,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -723,214 +1062,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011574</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1108</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011575</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1006,26 +1137,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1044,26 +1175,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1300</t>
+          <t>0.1108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1082,26 +1213,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0797</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1120,26 +1251,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0492</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1148,6 +1279,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1923,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603992-松霖科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.53</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -616,7 +633,385 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1062,214 +1457,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011574</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1108</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011575</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1345,26 +1532,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1383,26 +1570,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1300</t>
+          <t>0.1108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1421,26 +1608,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0797</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1459,26 +1646,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0492</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1487,6 +1674,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1808,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2054,7 +2449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,98 +2655,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1852</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>